--- a/doc/ue_shader_load.xlsx
+++ b/doc/ue_shader_load.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEEA246-0D18-4C59-B961-F617D502F1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A515AA5-661E-4F5C-9915-4481E5E85B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="简介" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="FShaderPipelineCache" sheetId="5" r:id="rId5"/>
     <sheet name="Shader加载" sheetId="6" r:id="rId6"/>
     <sheet name="Shader链接后存本地加速" sheetId="7" r:id="rId7"/>
+    <sheet name="初始化全局的Shader对象" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="166">
   <si>
     <t>各个平台下Shader的加载初始化流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -431,93 +432,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>if (bUseCodeLibrary)</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("FShaderCodeLibrary::InitForRuntime");</t>
+  </si>
+  <si>
+    <t>// Will open material shader code storage if project was packaged with it</t>
+  </si>
+  <si>
+    <t>// This only opens the Global shader library, which is always in the content dir.</t>
+  </si>
+  <si>
+    <t>FShaderCodeLibrary::InitForRuntime(GMaxRHIShaderPlatform);</t>
+  </si>
+  <si>
+    <t>#if !UE_EDITOR</t>
+  </si>
+  <si>
+    <t>// Cooked data only - but also requires the code library - game only</t>
+  </si>
+  <si>
+    <t>if (FPlatformProperties::RequiresCookedData())</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("FShaderPipelineCache::Initialize");</t>
+  </si>
+  <si>
+    <t>// Initialize the pipeline cache system. Opening is deferred until the manual call to</t>
+  </si>
+  <si>
+    <t>// OpenPipelineFileCache below, after content pak's ShaderCodeLibraries are loaded.</t>
+  </si>
+  <si>
+    <t>FShaderPipelineCache::Initialize(GMaxRHIShaderPlatform);</t>
+  </si>
+  <si>
+    <t>#endif //!UE_EDITOR</t>
+  </si>
+  <si>
+    <t>初始化FPipelineFileCache</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该对象在加载完GLOBAl的SHADER后初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部创建一个FPipelineCacheFile对象</t>
+  </si>
+  <si>
+    <t>内部创建一个FPipelineCacheFile对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool FShaderPipelineCache::Open(FString const&amp; Name, EShaderPlatform Platform)</t>
+  </si>
+  <si>
+    <t>bool bOK = FPipelineFileCache::OpenPipelineFileCache(Name, Platform, CacheFileGuid);</t>
+  </si>
+  <si>
+    <t>if (bOK)</t>
+  </si>
+  <si>
+    <t>if (OnCachePreOpen.IsBound())</t>
+  </si>
+  <si>
+    <t>OnCachePreOpen.Broadcast(Name, Platform, bReady);</t>
+  </si>
+  <si>
+    <t>广播事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (OnCachedOpened.IsBound())</t>
+  </si>
+  <si>
+    <t>OnCachedOpened.Broadcast(Name, Platform, LocalPreFetchedTasks.Num(), CacheFileGuid, ShaderCachePrecompileContext);</t>
+  </si>
+  <si>
+    <t>！！！调用到Android的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FOpenGLProgramBinaryCache::OnShaderPipelineCacheOpened(FString const&amp; Name , EShaderPlatform Platform, uint32 Count, const FGuid&amp; VersionGuid, FShaderPipelineCache::FShaderCachePrecompileContext&amp; ShaderCachePrecompileContext)</t>
+  </si>
+  <si>
     <t>bool bUseCodeLibrary = FPlatformProperties::RequiresCookedData() || GAllowCookedDataInEditorBuilds;</t>
-  </si>
-  <si>
-    <t>if (bUseCodeLibrary)</t>
-  </si>
-  <si>
-    <t>SCOPED_BOOT_TIMING("FShaderCodeLibrary::InitForRuntime");</t>
-  </si>
-  <si>
-    <t>// Will open material shader code storage if project was packaged with it</t>
-  </si>
-  <si>
-    <t>// This only opens the Global shader library, which is always in the content dir.</t>
-  </si>
-  <si>
-    <t>FShaderCodeLibrary::InitForRuntime(GMaxRHIShaderPlatform);</t>
-  </si>
-  <si>
-    <t>#if !UE_EDITOR</t>
-  </si>
-  <si>
-    <t>// Cooked data only - but also requires the code library - game only</t>
-  </si>
-  <si>
-    <t>if (FPlatformProperties::RequiresCookedData())</t>
-  </si>
-  <si>
-    <t>SCOPED_BOOT_TIMING("FShaderPipelineCache::Initialize");</t>
-  </si>
-  <si>
-    <t>// Initialize the pipeline cache system. Opening is deferred until the manual call to</t>
-  </si>
-  <si>
-    <t>// OpenPipelineFileCache below, after content pak's ShaderCodeLibraries are loaded.</t>
-  </si>
-  <si>
-    <t>FShaderPipelineCache::Initialize(GMaxRHIShaderPlatform);</t>
-  </si>
-  <si>
-    <t>#endif //!UE_EDITOR</t>
-  </si>
-  <si>
-    <t>初始化FPipelineFileCache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该对象在加载完GLOBAl的SHADER后初始化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>内部创建一个FPipelineCacheFile对象</t>
-  </si>
-  <si>
-    <t>内部创建一个FPipelineCacheFile对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool FShaderPipelineCache::Open(FString const&amp; Name, EShaderPlatform Platform)</t>
-  </si>
-  <si>
-    <t>bool bOK = FPipelineFileCache::OpenPipelineFileCache(Name, Platform, CacheFileGuid);</t>
-  </si>
-  <si>
-    <t>if (bOK)</t>
-  </si>
-  <si>
-    <t>if (OnCachePreOpen.IsBound())</t>
-  </si>
-  <si>
-    <t>OnCachePreOpen.Broadcast(Name, Platform, bReady);</t>
-  </si>
-  <si>
-    <t>广播事件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (OnCachedOpened.IsBound())</t>
-  </si>
-  <si>
-    <t>OnCachedOpened.Broadcast(Name, Platform, LocalPreFetchedTasks.Num(), CacheFileGuid, ShaderCachePrecompileContext);</t>
-  </si>
-  <si>
-    <t>！！！调用到Android的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FOpenGLProgramBinaryCache::OnShaderPipelineCacheOpened(FString const&amp; Name , EShaderPlatform Platform, uint32 Count, const FGuid&amp; VersionGuid, FShaderPipelineCache::FShaderCachePrecompileContext&amp; ShaderCachePrecompileContext)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bEnableShaderCompile)</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("InitializeShaderTypes");</t>
+  </si>
+  <si>
+    <t>// Initialize shader types before loading any shaders</t>
+  </si>
+  <si>
+    <t>InitializeShaderTypes();</t>
+  </si>
+  <si>
+    <t>初始化Shader类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bEnableShaderCompile &amp;&amp;</t>
+  </si>
+  <si>
+    <t>!IsRunningDedicatedServer() &amp;&amp;</t>
+  </si>
+  <si>
+    <t>(!IsRunningCommandlet() || IsAllowCommandletRendering()))</t>
+  </si>
+  <si>
+    <t>LLM_SCOPE(ELLMTag::Shaders);</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("CompileGlobalShaderMap");</t>
+  </si>
+  <si>
+    <t>CompileGlobalShaderMap(false);</t>
+  </si>
+  <si>
+    <t>if (IsEngineExitRequested())</t>
+  </si>
+  <si>
+    <t>// This means we can't continue without the global shader map.</t>
+  </si>
+  <si>
+    <t>return 1;</t>
+  </si>
+  <si>
+    <t>初始化全局的ShaderMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void CompileGlobalShaderMap(bool bRefreshShaderMap)</t>
+  </si>
+  <si>
+    <t>CompileGlobalShaderMap(GMaxRHIFeatureLevel, bRefreshShaderMap);</t>
+  </si>
+  <si>
+    <t>全局的Shader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -952,7 +1011,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5E6EE99-1B42-4D7E-A8BF-29DAB36AA1A6}">
   <dimension ref="A3:N52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
@@ -1420,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F326D7F6-D649-4E4D-96D8-BFADE2CEA6F2}">
   <dimension ref="A2:W71"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="B43" workbookViewId="0">
+      <selection activeCell="Q47" sqref="Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1495,7 +1554,7 @@
         <v>61</v>
       </c>
       <c r="U17" t="s">
-        <v>120</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="2:23" x14ac:dyDescent="0.2">
@@ -1503,7 +1562,7 @@
         <v>6</v>
       </c>
       <c r="U18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="2:23" x14ac:dyDescent="0.2">
@@ -1527,12 +1586,12 @@
         <v>9</v>
       </c>
       <c r="W21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.2">
       <c r="W22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.2">
@@ -1543,7 +1602,7 @@
         <v>119</v>
       </c>
       <c r="W23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.2">
@@ -1551,7 +1610,7 @@
         <v>65</v>
       </c>
       <c r="W24" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.2">
@@ -1572,7 +1631,7 @@
         <v>66</v>
       </c>
       <c r="T27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.2">
@@ -1580,12 +1639,12 @@
         <v>9</v>
       </c>
       <c r="V28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.2">
       <c r="V29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.2">
@@ -1601,12 +1660,12 @@
         <v>9</v>
       </c>
       <c r="W31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.2">
       <c r="W32" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:23" x14ac:dyDescent="0.2">
@@ -1614,15 +1673,15 @@
         <v>68</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="W33" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="W34" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.2">
@@ -1638,7 +1697,7 @@
         <v>69</v>
       </c>
       <c r="T36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.2">
@@ -1819,7 +1878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C32BDA9-EC5E-4270-95D8-961379E45CCE}">
   <dimension ref="A2:R66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G70" sqref="G70"/>
     </sheetView>
   </sheetViews>
@@ -2038,7 +2097,7 @@
         <v>115</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.2">
@@ -2046,7 +2105,7 @@
         <v>84</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.2">
@@ -2061,32 +2120,32 @@
     </row>
     <row r="51" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B51" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="52" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C52" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D55" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="57" spans="2:18" x14ac:dyDescent="0.2">
@@ -2096,7 +2155,7 @@
     </row>
     <row r="58" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E58" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="2:18" x14ac:dyDescent="0.2">
@@ -2106,12 +2165,12 @@
     </row>
     <row r="60" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D60" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="61" spans="2:18" x14ac:dyDescent="0.2">
       <c r="D61" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.2">
@@ -2121,10 +2180,10 @@
     </row>
     <row r="63" spans="2:18" x14ac:dyDescent="0.2">
       <c r="E63" t="s">
+        <v>144</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="R63" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="64" spans="2:18" x14ac:dyDescent="0.2">
@@ -2132,12 +2191,163 @@
         <v>9</v>
       </c>
       <c r="R64" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B66" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D86F4A-BFB9-48FA-8C1F-EE39620434FC}">
+  <dimension ref="B3:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C28" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="32" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
